--- a/operadoras_historico.xlsx
+++ b/operadoras_historico.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B137"/>
+  <dimension ref="A1:B213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2077,6 +2077,918 @@
         </is>
       </c>
     </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>008CARDS</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>AMEX</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>BANPARA</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>BANRICARD</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>BENVISAVALE</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>BIGCARD</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>BMGCARD</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>BOLETOBB</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>BRASILCARD</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>BRASILCARDNET</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>BRASILCONVENIOS</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>CABAL</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>CABOSESOLDADOS</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>CALCARD</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>CARTAOPREDATADO</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>CETELEM</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>CONVENIOSCARD</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>CREDNOSSO</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>CREDZ</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>CROSCARD</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>CSF</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>DESCONHECIDO</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>DIGIMODAS</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>ECXCARD</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>ELAVON</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>FANCARD</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>FORTBRASIL</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>GLOBAL PAYMENTS</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>GREENCARD</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>HAGANA</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>HELLOTICKET</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>INOVEPAY</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>KOIN</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>LAGOACRED</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>LINXPAY</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>LOSANGO</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>MAISFACIL</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>MAXI CARTÃO</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>NUTRICASH</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>OPERADORA TESTE CODIGO</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>PAGOLIVRE</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>PAGSIMPLES</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>PAGUELOGO</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>PEDEPRONTO</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>PERSONALCARD</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>PITCARD</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>PIXBB</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>RAPPI</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>RAPPI FARMACIA</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>REDEMED</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>REDETENDENCIA</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>REDETREL</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>SESIMAX</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>SICREDI</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>SINDPLUS</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>SOLUCARD</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>SOMA CONTA DIGITAL</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>SOROCRED</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>TEGYNBTEN</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>TESTE32</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>TICKET</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>TODOCARTOES</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>TRIOCARD</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>TRIPAG</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>UBEREATS</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>USACARD</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>VALECARD</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>VALECON</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>VALEMAIS</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>VEGASCARD</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>WEBCARD</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>WIZEO</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/operadoras_historico.xlsx
+++ b/operadoras_historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B213"/>
+  <dimension ref="A1:B298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2989,6 +2989,1026 @@
         </is>
       </c>
     </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>008CARDS</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>AMEX</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>AVANCARD</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>BANESCARD</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>BANPARA</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>BANRICARD</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>BENVISAVALE</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>BIGCARD</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>BIQ BENEFICIOS</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>BMGCARD</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>BOLETOBB</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>BRASILCARD</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>BRASILCARDNET</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>BRASILCONVENIOS</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>CABAL</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>CABOSESOLDADOS</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>CALCARD</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>CARTAOPREDATADO</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>CETELEM</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>CONVENIOSCARD</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>CREDNOSSO</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>CREDZ</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>CROSCARD</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>CSF</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>DESCONHECIDO</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>DIGIMODAS</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>DMCARD</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>ECXCARD</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>ELAVON</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>ER CARD</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>EUCARD</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>FANCARD</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>GLOBAL PAYMENTS</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>GOODCARD</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>GREENCARD</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>HAGANA</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>HELLOTICKET</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>INOVEPAY</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>KOIN</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>LAGOACRED</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>LOSANGO</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>MAISFACIL</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>MAXI CARTÃO</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>NUTRICASH</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>ONECARD</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>OPERADORA TESTE CODIGO</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>PAGOLIVRE</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>PAGSIMPLES</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>PAGUELOGO</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>PEDEPRONTO</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>PERSONALCARD</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>PITCARD</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>PIXBB</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>RAPPI</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>RAPPI FARMACIA</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>REDEMED</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>REDETENDENCIA</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>REDETREL</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>SESIMAX</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>SHELLBOX</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>SICREDI</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>SINDPLUS</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>SODEXO</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>SOLUCARD</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>SOMA CONTA DIGITAL</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>SOROCRED</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>SYSPROCARD</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>TEGYNBTEN</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>TESTE32</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>TICKET</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>TODOCARTOES</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>TRIOCARD</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>TRIPAG</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>UBEREATS</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>USACARD</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>VALECARD</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>VALECON</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>VALEMAIS</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>VEGASCARD</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>WEBCARD</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>WIZEO</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/operadoras_historico.xlsx
+++ b/operadoras_historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B298"/>
+  <dimension ref="A1:B378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4009,6 +4009,966 @@
         </is>
       </c>
     </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>008CARDS</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>AMEX</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>BANPARA</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>BANRICARD</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>BENVISAVALE</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>BIGCARD</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>BIQ BENEFICIOS</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>BMGCARD</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>BOLETOBB</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>BRASILCARD</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>BRASILCARDNET</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>BRASILCONVENIOS</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>CABAL</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>CABOSESOLDADOS</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>CALCARD</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>CARTAOPREDATADO</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>CETELEM</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>CONVENIOSCARD</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>CREDNOSSO</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>CREDZ</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>CROSCARD</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>CSF</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>DESCONHECIDO</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>DIGIMODAS</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>ECXCARD</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>ELAVON</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>ER CARD</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>EUCARD</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>GLOBAL PAYMENTS</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>GRANDCARD</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>HAGANA</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>HELLOTICKET</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>INOVEPAY</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>KOIN</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>LAGOACRED</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>LINXPAY</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>LOSANGO</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>MAISFACIL</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>MAXI CARTÃO</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>NUTRICASH</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>OPERADORA TESTE CODIGO</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>PAGOLIVRE</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>PAGSIMPLES</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>PAGUELOGO</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>PEDEPRONTO</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>PERSONALCARD</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>PITCARD</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>PIXBB</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>RAPPI</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>RAPPI FARMACIA</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>REDEMED</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>REDETENDENCIA</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>REDETREL</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>SESIMAX</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>SHELLBOX</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>SICREDI</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>SINDPLUS</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>SOLUCARD</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>SOMA CONTA DIGITAL</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>SOROCRED</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>SYSPROCARD</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>TEGYNBTEN</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>TESTE32</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>TICKET</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>TODOCARTOES</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>TRIOCARD</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>TRIPAG</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>UBEREATS</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>USACARD</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>VALECARD</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>VALECON</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>VALEMAIS</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>VALESHOP</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>VEGASCARD</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>WEBCARD</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>WIZEO</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/operadoras_historico.xlsx
+++ b/operadoras_historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B378"/>
+  <dimension ref="A1:B453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4969,6 +4969,906 @@
         </is>
       </c>
     </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>008CARDS</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>AMEX</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>BANPARA</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>BANRICARD</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>BENVISAVALE</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>BIGCARD</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>BMGCARD</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>BOLETOBB</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>BRASILCARD</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>BRASILCARDNET</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>BRASILCONVENIOS</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>CABAL</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>CABOSESOLDADOS</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>CALCARD</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>CARTAOPREDATADO</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>CETELEM</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>CIELO</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>CONVENIOSCARD</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>CREDNOSSO</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>CREDZ</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>CROSCARD</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>CSF</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>DESCONHECIDO</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>DIGIMODAS</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>ECXCARD</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>ELAVON</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>GLOBAL PAYMENTS</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>HAGANA</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>HELLOTICKET</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>INOVEPAY</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>KOIN</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>LAGOACRED</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>LOSANGO</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>MAISFACIL</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>MAXI CARTÃO</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>NUTRICASH</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>OPERADORA TESTE CODIGO</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>PAGOLIVRE</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>PAGSIMPLES</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>PAGUELOGO</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>PEDEPRONTO</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>PERSONALCARD</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>PITCARD</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>PIXBB</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>RAPPI</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>RAPPI FARMACIA</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>REDEMED</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>REDETENDENCIA</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>REDETREL</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>SESIMAX</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>SHELLBOX</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>SICREDI</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>SINDPLUS</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>SOLUCARD</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>SOMA CONTA DIGITAL</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>SOROCRED</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>SYSPROCARD</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>TEGYNBTEN</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>TESTE32</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>TICKET</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>TODOCARTOES</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>TRIOCARD</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>TRIPAG</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>UBEREATS</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>USACARD</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>VALECARD</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>VALECON</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>VALEMAIS</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>VEGASCARD</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>WEBCARD</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>WIZEO</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/operadoras_historico.xlsx
+++ b/operadoras_historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B453"/>
+  <dimension ref="A1:B528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5869,6 +5869,906 @@
         </is>
       </c>
     </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>008CARDS</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>AMEX</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>BANPARA</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>BANRICARD</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>BENVISAVALE</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>BIGCARD</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>BMGCARD</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>BOLETOBB</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>BRASILCARD</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>BRASILCARDNET</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>BRASILCONVENIOS</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>CABAL</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>CABOSESOLDADOS</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>CALCARD</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>CARTAOPREDATADO</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>CETELEM</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>CIELO</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>CONVENIOSCARD</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>CREDNOSSO</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>CREDZ</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>CROSCARD</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>CSF</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>DESCONHECIDO</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>DIGIMODAS</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>ECXCARD</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>ELAVON</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>ER CARD</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>EUCARD</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>FANCARD</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>FORTBRASIL</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>GLOBAL PAYMENTS</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>GREENCARD</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>HAGANA</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>HELLOTICKET</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>INOVEPAY</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>KOIN</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>LAGOACRED</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>LOSANGO</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>MAISFACIL</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>MAXI CARTÃO</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>NUTRICASH</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>OPERADORA TESTE CODIGO</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>PAGOLIVRE</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>PAGSIMPLES</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>PAGUELOGO</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>PEDEPRONTO</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>PERSONALCARD</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>PITCARD</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>PIXBB</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>RAPPI</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>RAPPI FARMACIA</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>REDEMED</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>REDETREL</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>SESIMAX</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>SHELLBOX</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>SICREDI</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>SINDPLUS</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>SOLUCARD</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>SOMA CONTA DIGITAL</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>SOROCRED</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>SYSPROCARD</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>TEGYNBTEN</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>TESTE32</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>TODOCARTOES</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>TRICARD</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>UBEREATS</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>USACARD</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>VALECON</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>VALEMAIS</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>WEBCARD</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>WIZEO</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/operadoras_historico.xlsx
+++ b/operadoras_historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B528"/>
+  <dimension ref="A1:B600"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6769,6 +6769,870 @@
         </is>
       </c>
     </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>008CARDS</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>AMEX</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>BANESCARD</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>BANPARA</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>BANRICARD</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>BMGCARD</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>BOLETOBB</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>BRASILCARD</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>BRASILCARDNET</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>BRASILCONVENIOS</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>CABAL</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>CABOSESOLDADOS</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>CALCARD</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>CARTAOPREDATADO</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>CETELEM</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>CONVENIOSCARD</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>CREDNOSSO</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>CREDZ</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>CROSCARD</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>CSF</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>DESCONHECIDO</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>DIGIMODAS</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>ECXCARD</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>ELAVON</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>FANCARD</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>FITCARD</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>FORTBRASIL</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>GLOBAL PAYMENTS</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>HAGANA</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>HELLOTICKET</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>IBICARTOES</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>INOVEPAY</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>KOIN</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>LAGOACRED</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>LOSANGO</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>MAISFACIL</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>MAXI CARTÃO</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>OPERADORA TESTE CODIGO</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>PAGOLIVRE</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>PAGSIMPLES</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>PAGUELOGO</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>PEDEPRONTO</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>PITCARD</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>PIXBB</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>RAPPI</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>RAPPI FARMACIA</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>REDEMED</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>REDETREL</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>SESIMAX</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>SICREDI</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>SINDPLUS</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>SODEXO</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>SOLUCARD</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>SOMA CONTA DIGITAL</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>SOROCRED</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>SYSPROCARD</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>TEGYNBTEN</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>TESTE32</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>TODOCARTOES</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>TRICARD</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>TRIPAG</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>UBEREATS</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>USACARD</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>VALECON</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>VALEMAIS</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>VERO</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>WEBCARD</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>WIZEO</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/operadoras_historico.xlsx
+++ b/operadoras_historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B600"/>
+  <dimension ref="A1:B678"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7633,6 +7633,942 @@
         </is>
       </c>
     </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>008CARDS</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>AMEX</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>BANPARA</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>BANRICARD</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>BENVISAVALE</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>BIGCARD</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>BMGCARD</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>BOLETOBB</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>BRASILCARD</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>BRASILCARDNET</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>BRASILCONVENIOS</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>CABOSESOLDADOS</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>CALCARD</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>CARTAOPREDATADO</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>CETELEM</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>CONVENIOSCARD</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>CREDNOSSO</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>CREDZ</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>CROSCARD</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>CSF</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>DESCONHECIDO</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>DIGIMODAS</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>ECXCARD</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>ELAVON</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>ER CARD</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>FANCARD</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>FORTBRASIL</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>GLOBAL PAYMENTS</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>HAGANA</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>HELLOTICKET</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>HTNCARD</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>INOVEPAY</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>KOIN</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>LAGOACRED</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>LOSANGO</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>MAISFACIL</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>MAXI CARTÃO</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>NUTRICASH</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>OPERADORA TESTE CODIGO</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>PAGOLIVRE</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>PAGSIMPLES</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>PAGUELOGO</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>PEDEPRONTO</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>PERSONALCARD</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>PITCARD</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>PIXBB</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>RAPPI</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>RAPPI FARMACIA</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>REDEMED</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>REDETENDENCIA</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>REDETREL</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>SANTANDER</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>SERTAOCARD</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>SESIMAX</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>SICREDI</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>SINDPLUS</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>SOLUCARD</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>SOMA CONTA DIGITAL</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>SOROCRED</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>SYSPROCARD</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>TEGYNBTEN</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>TESTE32</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>TICKET</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>TODOCARTOES</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>TRIOCARD</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>UBEREATS</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>USACARD</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>VALECARD</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>VALECON</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>VALEMAIS</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>VALESHOP</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>VEGASCARD</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>WEBCARD</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>WIZEO</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/operadoras_historico.xlsx
+++ b/operadoras_historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B678"/>
+  <dimension ref="A1:B757"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8569,6 +8569,954 @@
         </is>
       </c>
     </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>008CARDS</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>AMEX</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>BANPARA</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>BANRICARD</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>BENVISAVALE</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>BIGCARD</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>BMGCARD</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>BOLETOBB</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>BRASILCARD</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>BRASILCARDNET</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>BRASILCONVENIOS</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>CABAL</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>CABOSESOLDADOS</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>CALCARD</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>CARTAOPREDATADO</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>CETELEM</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>CONVENIOSCARD</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>CREDISHOP</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>CREDNOSSO</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>CREDZ</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>CROSCARD</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>CSF</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>DESCONHECIDO</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>DIGIMODAS</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>ECXCARD</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>ELAVON</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>ER CARD</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>FANCARD</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>FORTBRASIL</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>GLOBAL PAYMENTS</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>GREENCARD</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>HAGANA</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>HELLOTICKET</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>INOVEPAY</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>KOIN</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>LAGOACRED</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>LOSANGO</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>MAISFACIL</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>MAXI CARTÃO</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>NUTRICASH</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>OPERADORA TESTE CODIGO</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>PAGOLIVRE</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>PAGSIMPLES</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>PAGUELOGO</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>PEDEPRONTO</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>PERSONALCARD</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>PITCARD</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>PIXBB</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>RAPPI</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>RAPPI FARMACIA</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>REDEMED</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>REDETENDENCIA</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>REDETREL</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>SESIMAX</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>SHELLBOX</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>SICREDI</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>SINDPLUS</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>SOLUCARD</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>SOMA CONTA DIGITAL</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>SOROCRED</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>TEGYNBTEN</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>TESTE32</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>TICKET</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>TODOCARTOES</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>TRIOCARD</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>TRIPAG</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>UBEREATS</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>USACARD</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>VALECARD</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>VALECON</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>VALEMAIS</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>VALESHOP</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>VEGASCARD</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>WEBCARD</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>WIZEO</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/operadoras_historico.xlsx
+++ b/operadoras_historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B757"/>
+  <dimension ref="A1:B841"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9517,6 +9517,1014 @@
         </is>
       </c>
     </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>008CARDS</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>AMEX</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>BANPARA</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>BANRICARD</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>BENVISAVALE</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>BIGCARD</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>BIQ BENEFICIOS</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>BMGCARD</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>BOLETOBB</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>BRASILCARD</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>BRASILCARDNET</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>BRASILCONVENIOS</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>CABOSESOLDADOS</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>CALCARD</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>CARTAOPREDATADO</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>CETELEM</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>CONVENIOSCARD</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>CREDISHOP</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>CREDNOSSO</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>CREDZ</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>CROSCARD</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>CSF</t>
+        </is>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>DESCONHECIDO</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>DIGIMODAS</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>ECXCARD</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>ELAVON</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>ER CARD</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>EUCARD</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>FANCARD</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>FORTBRASIL</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>GLOBAL PAYMENTS</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>GREENCARD</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>HAGANA</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>HELLOTICKET</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>HTNCARD</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>INOVEPAY</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>KOIN</t>
+        </is>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>LAGOACRED</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>LOSANGO</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>MAISFACIL</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>MAXI CARTÃO</t>
+        </is>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>NEUSFESTECARD</t>
+        </is>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>NUTRICASH</t>
+        </is>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>OPERADORA TESTE CODIGO</t>
+        </is>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>PAGOLIVRE</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>PAGSIMPLES</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>PAGUELOGO</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>PEDEPRONTO</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>PERSONALCARD</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>PITCARD</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>PIXBB</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>PLANVALE</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>RAPPI</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>RAPPI FARMACIA</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>REDEMED</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>REDETENDENCIA</t>
+        </is>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>REDETREL</t>
+        </is>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>SERTAOCARD</t>
+        </is>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>SESIMAX</t>
+        </is>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>SHELLBOX</t>
+        </is>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>SICREDI</t>
+        </is>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>SINDPLUS</t>
+        </is>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>SODEXO</t>
+        </is>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>SOMA CONTA DIGITAL</t>
+        </is>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>SOROCRED</t>
+        </is>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>SYSPROCARD</t>
+        </is>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>TEGYNBTEN</t>
+        </is>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>TESTE32</t>
+        </is>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>TODOCARTOES</t>
+        </is>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>TRIOCARD</t>
+        </is>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>TRIPAG</t>
+        </is>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>UBEREATS</t>
+        </is>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>USACARD</t>
+        </is>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>VALECARD</t>
+        </is>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>VALECON</t>
+        </is>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>VALEMAIS</t>
+        </is>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>VALESHOP</t>
+        </is>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>VEGASCARD</t>
+        </is>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>WEBCARD</t>
+        </is>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>WIZEO</t>
+        </is>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/operadoras_historico.xlsx
+++ b/operadoras_historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B841"/>
+  <dimension ref="A1:B941"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10525,6 +10525,1206 @@
         </is>
       </c>
     </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>008CARDS</t>
+        </is>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>ABRAPETITE</t>
+        </is>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>ACCREDITO</t>
+        </is>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>AMEX</t>
+        </is>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>BANESCARD</t>
+        </is>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>BANPARA</t>
+        </is>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>BANRICARD</t>
+        </is>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>BENVISAVALE</t>
+        </is>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>BIGCARD</t>
+        </is>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>BIQ BENEFICIOS</t>
+        </is>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>BMGCARD</t>
+        </is>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>BOLETOBB</t>
+        </is>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>BRASILCARD</t>
+        </is>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>BRASILCARDNET</t>
+        </is>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>BRASILCONVENIO</t>
+        </is>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>BRASILCONVENIOS</t>
+        </is>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>CABAL</t>
+        </is>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>CABOSESOLDADOS</t>
+        </is>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>CALCARD</t>
+        </is>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>CARTAOPREDATADO</t>
+        </is>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>CDCCARD</t>
+        </is>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>CETELEM</t>
+        </is>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>COMPROCARD</t>
+        </is>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>CONVENIOSCARD</t>
+        </is>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>CREDISHOP</t>
+        </is>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>CREDNOSSO</t>
+        </is>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>CREDSYSTEM</t>
+        </is>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>CREDZ</t>
+        </is>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>CROSCARD</t>
+        </is>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>CSF</t>
+        </is>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>DESCONHECIDO</t>
+        </is>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>DIGIMODAS</t>
+        </is>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>ECXCARD</t>
+        </is>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>ELAVON</t>
+        </is>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>ER CARD</t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>EUCARD</t>
+        </is>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>FANCARD</t>
+        </is>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>FITCARD</t>
+        </is>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>FORTBRASIL</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>GLOBAL PAYMENTS</t>
+        </is>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>GOODCARD</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>GRANDCARD</t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>GREENCARD</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>HAGANA</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>HELLOTICKET</t>
+        </is>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>HTNCARD</t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>IBICARTOES</t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>INOVEPAY</t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>KOIN</t>
+        </is>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>LAGOACRED</t>
+        </is>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>LIBERCARD</t>
+        </is>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>LOSANGO</t>
+        </is>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>MAISFACIL</t>
+        </is>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>MAXI CARTÃO</t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>NEUSFESTECARD</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>NUTRICASH</t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>OPERADORA TESTE CODIGO</t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>PAGOLIVRE</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>PAGSIMPLES</t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>PAGUELOGO</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>PEDEPRONTO</t>
+        </is>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>PERSONALCARD</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>PITCARD</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>PIXBB</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>PLANVALE</t>
+        </is>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>RAPPI</t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>RAPPI FARMACIA</t>
+        </is>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>REDEMED</t>
+        </is>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>REDETENDENCIA</t>
+        </is>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>REDETREL</t>
+        </is>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>ROMCARD</t>
+        </is>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>SANTANDER</t>
+        </is>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>SERTAOCARD</t>
+        </is>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>SESIMAX</t>
+        </is>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>SHELLBOX</t>
+        </is>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>SICREDI</t>
+        </is>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>SINDPLUS</t>
+        </is>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>SODEXO</t>
+        </is>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>SOLUCARD</t>
+        </is>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>SOMA CONTA DIGITAL</t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>SOROCRED</t>
+        </is>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>SYSPROCARD</t>
+        </is>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>TEGYNBTEN</t>
+        </is>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>TESTE32</t>
+        </is>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>TODOCARTOES</t>
+        </is>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>TRIOCARD</t>
+        </is>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>TRIPAG</t>
+        </is>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>UBEREATS</t>
+        </is>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>USACARD</t>
+        </is>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>VALECARD</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>VALECON</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>VALEMAIS</t>
+        </is>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>VALESHOP</t>
+        </is>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>VEGASCARD</t>
+        </is>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>WEBCARD</t>
+        </is>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>WIZEO</t>
+        </is>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/operadoras_historico.xlsx
+++ b/operadoras_historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B941"/>
+  <dimension ref="A1:B1026"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11725,6 +11725,1026 @@
         </is>
       </c>
     </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>008CARDS</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>AMEX</t>
+        </is>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>BANESCARD</t>
+        </is>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>BANPARA</t>
+        </is>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>BANRICARD</t>
+        </is>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>BENVISAVALE</t>
+        </is>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>BIGCARD</t>
+        </is>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>BIQ BENEFICIOS</t>
+        </is>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>BMGCARD</t>
+        </is>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>BOLETOBB</t>
+        </is>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>BRASILCARD</t>
+        </is>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>BRASILCARDNET</t>
+        </is>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>BRASILCONVENIOS</t>
+        </is>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>CABAL</t>
+        </is>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>CABOSESOLDADOS</t>
+        </is>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>CALCARD</t>
+        </is>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>CARTAOPREDATADO</t>
+        </is>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>CETELEM</t>
+        </is>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>CONVENIOSCARD</t>
+        </is>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>CREDNOSSO</t>
+        </is>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>CREDZ</t>
+        </is>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>CROSCARD</t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t>CSF</t>
+        </is>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="inlineStr">
+        <is>
+          <t>DESCONHECIDO</t>
+        </is>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="inlineStr">
+        <is>
+          <t>DIGIMODAS</t>
+        </is>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>ECXCARD</t>
+        </is>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>ELAVON</t>
+        </is>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>ER CARD</t>
+        </is>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>FORTBRASIL</t>
+        </is>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>GLOBAL PAYMENTS</t>
+        </is>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>GOODCARD</t>
+        </is>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>GREENCARD</t>
+        </is>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>HAGANA</t>
+        </is>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t>HELLOTICKET</t>
+        </is>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t>HTNCARD</t>
+        </is>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t>INOVEPAY</t>
+        </is>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>KOIN</t>
+        </is>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>LAGOACRED</t>
+        </is>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>LOSANGO</t>
+        </is>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>MAISFACIL</t>
+        </is>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>MAXI CARTÃO</t>
+        </is>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>NEUSFESTECARD</t>
+        </is>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>NUTRICASH</t>
+        </is>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>ONECARD</t>
+        </is>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>OPERADORA TESTE CODIGO</t>
+        </is>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>PAGOLIVRE</t>
+        </is>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>PAGSIMPLES</t>
+        </is>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>PAGUELOGO</t>
+        </is>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>PEDEPRONTO</t>
+        </is>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>PITCARD</t>
+        </is>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>PIXBB</t>
+        </is>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>RAPPI</t>
+        </is>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t>RAPPI FARMACIA</t>
+        </is>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="inlineStr">
+        <is>
+          <t>REDEMED</t>
+        </is>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>REDETENDENCIA</t>
+        </is>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>REDETREL</t>
+        </is>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>SANTANDER</t>
+        </is>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>SEM PARA</t>
+        </is>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>SERTAOCARD</t>
+        </is>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>SESIMAX</t>
+        </is>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>SHELLBOX</t>
+        </is>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>SICREDI</t>
+        </is>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>SINDPLUS</t>
+        </is>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>SODEXO</t>
+        </is>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>SOMA CONTA DIGITAL</t>
+        </is>
+      </c>
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t>SOROCRED</t>
+        </is>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>SYSPROCARD</t>
+        </is>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="inlineStr">
+        <is>
+          <t>TEGYNBTEN</t>
+        </is>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="inlineStr">
+        <is>
+          <t>TESTE32</t>
+        </is>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="inlineStr">
+        <is>
+          <t>TODOCARTOES</t>
+        </is>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t>TRIOCARD</t>
+        </is>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="inlineStr">
+        <is>
+          <t>TRIPAG</t>
+        </is>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="inlineStr">
+        <is>
+          <t>UBEREATS</t>
+        </is>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="inlineStr">
+        <is>
+          <t>USACARD</t>
+        </is>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t>VALECARD</t>
+        </is>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="inlineStr">
+        <is>
+          <t>VALECON</t>
+        </is>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="inlineStr">
+        <is>
+          <t>VALEMAIS</t>
+        </is>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="inlineStr">
+        <is>
+          <t>VALESHOP</t>
+        </is>
+      </c>
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="inlineStr">
+        <is>
+          <t>VEGASCARD</t>
+        </is>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="inlineStr">
+        <is>
+          <t>WEBCARD</t>
+        </is>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="inlineStr">
+        <is>
+          <t>WIZEO</t>
+        </is>
+      </c>
+      <c r="B1026" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/operadoras_historico.xlsx
+++ b/operadoras_historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1026"/>
+  <dimension ref="A1:B1170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12745,6 +12745,1734 @@
         </is>
       </c>
     </row>
+    <row r="1027">
+      <c r="A1027" t="inlineStr">
+        <is>
+          <t>008CARDS</t>
+        </is>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="inlineStr">
+        <is>
+          <t>AMEX</t>
+        </is>
+      </c>
+      <c r="B1028" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="inlineStr">
+        <is>
+          <t>BANESCARD</t>
+        </is>
+      </c>
+      <c r="B1029" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="inlineStr">
+        <is>
+          <t>BANPARA</t>
+        </is>
+      </c>
+      <c r="B1030" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="inlineStr">
+        <is>
+          <t>BANRICARD</t>
+        </is>
+      </c>
+      <c r="B1031" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t>BENVISAVALE</t>
+        </is>
+      </c>
+      <c r="B1032" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="inlineStr">
+        <is>
+          <t>BIQ BENEFICIOS</t>
+        </is>
+      </c>
+      <c r="B1033" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="inlineStr">
+        <is>
+          <t>BMGCARD</t>
+        </is>
+      </c>
+      <c r="B1034" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+      <c r="B1035" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="inlineStr">
+        <is>
+          <t>BOLETOBB</t>
+        </is>
+      </c>
+      <c r="B1036" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="inlineStr">
+        <is>
+          <t>BRASILCARD</t>
+        </is>
+      </c>
+      <c r="B1037" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="inlineStr">
+        <is>
+          <t>BRASILCARDNET</t>
+        </is>
+      </c>
+      <c r="B1038" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="inlineStr">
+        <is>
+          <t>BRASILCONVENIOS</t>
+        </is>
+      </c>
+      <c r="B1039" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="inlineStr">
+        <is>
+          <t>CABAL</t>
+        </is>
+      </c>
+      <c r="B1040" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="inlineStr">
+        <is>
+          <t>CABOSESOLDADOS</t>
+        </is>
+      </c>
+      <c r="B1041" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="inlineStr">
+        <is>
+          <t>CALCARD</t>
+        </is>
+      </c>
+      <c r="B1042" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="inlineStr">
+        <is>
+          <t>CARTAOPREDATADO</t>
+        </is>
+      </c>
+      <c r="B1043" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="inlineStr">
+        <is>
+          <t>CETELEM</t>
+        </is>
+      </c>
+      <c r="B1044" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="inlineStr">
+        <is>
+          <t>CONVENIOSCARD</t>
+        </is>
+      </c>
+      <c r="B1045" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="inlineStr">
+        <is>
+          <t>CREDNOSSO</t>
+        </is>
+      </c>
+      <c r="B1046" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="inlineStr">
+        <is>
+          <t>CREDZ</t>
+        </is>
+      </c>
+      <c r="B1047" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="inlineStr">
+        <is>
+          <t>CROSCARD</t>
+        </is>
+      </c>
+      <c r="B1048" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="inlineStr">
+        <is>
+          <t>CSF</t>
+        </is>
+      </c>
+      <c r="B1049" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="inlineStr">
+        <is>
+          <t>DESCONHECIDO</t>
+        </is>
+      </c>
+      <c r="B1050" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="inlineStr">
+        <is>
+          <t>DIGIMODAS</t>
+        </is>
+      </c>
+      <c r="B1051" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="inlineStr">
+        <is>
+          <t>ECXCARD</t>
+        </is>
+      </c>
+      <c r="B1052" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t>ELAVON</t>
+        </is>
+      </c>
+      <c r="B1053" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>ER CARD</t>
+        </is>
+      </c>
+      <c r="B1054" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>FANCARD</t>
+        </is>
+      </c>
+      <c r="B1055" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="inlineStr">
+        <is>
+          <t>FORTBRASIL</t>
+        </is>
+      </c>
+      <c r="B1056" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="inlineStr">
+        <is>
+          <t>GLOBAL PAYMENTS</t>
+        </is>
+      </c>
+      <c r="B1057" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="inlineStr">
+        <is>
+          <t>GOODCARD</t>
+        </is>
+      </c>
+      <c r="B1058" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="inlineStr">
+        <is>
+          <t>GREENCARD</t>
+        </is>
+      </c>
+      <c r="B1059" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="inlineStr">
+        <is>
+          <t>HAGANA</t>
+        </is>
+      </c>
+      <c r="B1060" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="inlineStr">
+        <is>
+          <t>HELLOTICKET</t>
+        </is>
+      </c>
+      <c r="B1061" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="inlineStr">
+        <is>
+          <t>INOVEPAY</t>
+        </is>
+      </c>
+      <c r="B1062" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B1063" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="inlineStr">
+        <is>
+          <t>KOIN</t>
+        </is>
+      </c>
+      <c r="B1064" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="inlineStr">
+        <is>
+          <t>LAGOACRED</t>
+        </is>
+      </c>
+      <c r="B1065" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="inlineStr">
+        <is>
+          <t>LOSANGO</t>
+        </is>
+      </c>
+      <c r="B1066" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="inlineStr">
+        <is>
+          <t>MAISFACIL</t>
+        </is>
+      </c>
+      <c r="B1067" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>MAXI CARTÃO</t>
+        </is>
+      </c>
+      <c r="B1068" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="inlineStr">
+        <is>
+          <t>ONECARD</t>
+        </is>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="inlineStr">
+        <is>
+          <t>OPERADORA TESTE CODIGO</t>
+        </is>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="inlineStr">
+        <is>
+          <t>PAGOLIVRE</t>
+        </is>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="inlineStr">
+        <is>
+          <t>PAGSIMPLES</t>
+        </is>
+      </c>
+      <c r="B1072" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="inlineStr">
+        <is>
+          <t>PAGUELOGO</t>
+        </is>
+      </c>
+      <c r="B1073" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="inlineStr">
+        <is>
+          <t>PEDEPRONTO</t>
+        </is>
+      </c>
+      <c r="B1074" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="inlineStr">
+        <is>
+          <t>PITCARD</t>
+        </is>
+      </c>
+      <c r="B1075" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="inlineStr">
+        <is>
+          <t>PIXBB</t>
+        </is>
+      </c>
+      <c r="B1076" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="inlineStr">
+        <is>
+          <t>RAPPI</t>
+        </is>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="inlineStr">
+        <is>
+          <t>RAPPI FARMACIA</t>
+        </is>
+      </c>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="inlineStr">
+        <is>
+          <t>REDEMED</t>
+        </is>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>REDETREL</t>
+        </is>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>SESIMAX</t>
+        </is>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>SHELLBOX</t>
+        </is>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="inlineStr">
+        <is>
+          <t>SICREDI</t>
+        </is>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>SINDPLUS</t>
+        </is>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>SOMA CONTA DIGITAL</t>
+        </is>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="inlineStr">
+        <is>
+          <t>SOROCRED</t>
+        </is>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="inlineStr">
+        <is>
+          <t>SYSPROCARD</t>
+        </is>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t>TEGYNBTEN</t>
+        </is>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B1089" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B1090" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="inlineStr">
+        <is>
+          <t>TESTE32</t>
+        </is>
+      </c>
+      <c r="B1091" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="inlineStr">
+        <is>
+          <t>TODOCARTOES</t>
+        </is>
+      </c>
+      <c r="B1092" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="inlineStr">
+        <is>
+          <t>UBEREATS</t>
+        </is>
+      </c>
+      <c r="B1093" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="inlineStr">
+        <is>
+          <t>USACARD</t>
+        </is>
+      </c>
+      <c r="B1094" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="inlineStr">
+        <is>
+          <t>VALECON</t>
+        </is>
+      </c>
+      <c r="B1095" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="inlineStr">
+        <is>
+          <t>VALEMAIS</t>
+        </is>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="inlineStr">
+        <is>
+          <t>WEBCARD</t>
+        </is>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="inlineStr">
+        <is>
+          <t>WIZEO</t>
+        </is>
+      </c>
+      <c r="B1098" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="inlineStr">
+        <is>
+          <t>008CARDS</t>
+        </is>
+      </c>
+      <c r="B1099" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="inlineStr">
+        <is>
+          <t>AMEX</t>
+        </is>
+      </c>
+      <c r="B1100" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="inlineStr">
+        <is>
+          <t>BANESCARD</t>
+        </is>
+      </c>
+      <c r="B1101" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="inlineStr">
+        <is>
+          <t>BANPARA</t>
+        </is>
+      </c>
+      <c r="B1102" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="inlineStr">
+        <is>
+          <t>BANRICARD</t>
+        </is>
+      </c>
+      <c r="B1103" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="inlineStr">
+        <is>
+          <t>BIQ BENEFICIOS</t>
+        </is>
+      </c>
+      <c r="B1104" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="inlineStr">
+        <is>
+          <t>BMGCARD</t>
+        </is>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="inlineStr">
+        <is>
+          <t>BOLETOBB</t>
+        </is>
+      </c>
+      <c r="B1107" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="inlineStr">
+        <is>
+          <t>BRASILCARD</t>
+        </is>
+      </c>
+      <c r="B1108" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="inlineStr">
+        <is>
+          <t>BRASILCARDNET</t>
+        </is>
+      </c>
+      <c r="B1109" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="inlineStr">
+        <is>
+          <t>BRASILCONVENIOS</t>
+        </is>
+      </c>
+      <c r="B1110" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="inlineStr">
+        <is>
+          <t>CABOSESOLDADOS</t>
+        </is>
+      </c>
+      <c r="B1111" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="inlineStr">
+        <is>
+          <t>CALCARD</t>
+        </is>
+      </c>
+      <c r="B1112" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="inlineStr">
+        <is>
+          <t>CARTAOPREDATADO</t>
+        </is>
+      </c>
+      <c r="B1113" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="inlineStr">
+        <is>
+          <t>CETELEM</t>
+        </is>
+      </c>
+      <c r="B1114" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="inlineStr">
+        <is>
+          <t>CONVENIOSCARD</t>
+        </is>
+      </c>
+      <c r="B1115" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="inlineStr">
+        <is>
+          <t>CREDNOSSO</t>
+        </is>
+      </c>
+      <c r="B1116" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="inlineStr">
+        <is>
+          <t>CREDZ</t>
+        </is>
+      </c>
+      <c r="B1117" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="inlineStr">
+        <is>
+          <t>CROSCARD</t>
+        </is>
+      </c>
+      <c r="B1118" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="inlineStr">
+        <is>
+          <t>CSF</t>
+        </is>
+      </c>
+      <c r="B1119" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="inlineStr">
+        <is>
+          <t>DESCONHECIDO</t>
+        </is>
+      </c>
+      <c r="B1120" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="inlineStr">
+        <is>
+          <t>DIGIMODAS</t>
+        </is>
+      </c>
+      <c r="B1121" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="inlineStr">
+        <is>
+          <t>ECXCARD</t>
+        </is>
+      </c>
+      <c r="B1122" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="inlineStr">
+        <is>
+          <t>ELAVON</t>
+        </is>
+      </c>
+      <c r="B1123" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="inlineStr">
+        <is>
+          <t>ER CARD</t>
+        </is>
+      </c>
+      <c r="B1124" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="inlineStr">
+        <is>
+          <t>EUCARD</t>
+        </is>
+      </c>
+      <c r="B1125" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="inlineStr">
+        <is>
+          <t>FANCARD</t>
+        </is>
+      </c>
+      <c r="B1126" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="inlineStr">
+        <is>
+          <t>FORTBRASIL</t>
+        </is>
+      </c>
+      <c r="B1127" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="inlineStr">
+        <is>
+          <t>GLOBAL PAYMENTS</t>
+        </is>
+      </c>
+      <c r="B1128" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="inlineStr">
+        <is>
+          <t>HAGANA</t>
+        </is>
+      </c>
+      <c r="B1129" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="inlineStr">
+        <is>
+          <t>HELLOTICKET</t>
+        </is>
+      </c>
+      <c r="B1130" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="inlineStr">
+        <is>
+          <t>HTNCARD</t>
+        </is>
+      </c>
+      <c r="B1131" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="inlineStr">
+        <is>
+          <t>IBICARTOES</t>
+        </is>
+      </c>
+      <c r="B1132" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="inlineStr">
+        <is>
+          <t>INOVEPAY</t>
+        </is>
+      </c>
+      <c r="B1133" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B1134" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="inlineStr">
+        <is>
+          <t>KOIN</t>
+        </is>
+      </c>
+      <c r="B1135" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="inlineStr">
+        <is>
+          <t>LAGOACRED</t>
+        </is>
+      </c>
+      <c r="B1136" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="inlineStr">
+        <is>
+          <t>LOSANGO</t>
+        </is>
+      </c>
+      <c r="B1137" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="inlineStr">
+        <is>
+          <t>MAISFACIL</t>
+        </is>
+      </c>
+      <c r="B1138" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="inlineStr">
+        <is>
+          <t>MAXI CARTÃO</t>
+        </is>
+      </c>
+      <c r="B1139" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="inlineStr">
+        <is>
+          <t>ONECARD</t>
+        </is>
+      </c>
+      <c r="B1140" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="inlineStr">
+        <is>
+          <t>OPERADORA TESTE CODIGO</t>
+        </is>
+      </c>
+      <c r="B1141" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="inlineStr">
+        <is>
+          <t>PAGOLIVRE</t>
+        </is>
+      </c>
+      <c r="B1142" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="inlineStr">
+        <is>
+          <t>PAGSIMPLES</t>
+        </is>
+      </c>
+      <c r="B1143" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="inlineStr">
+        <is>
+          <t>PAGUELOGO</t>
+        </is>
+      </c>
+      <c r="B1144" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="inlineStr">
+        <is>
+          <t>PEDEPRONTO</t>
+        </is>
+      </c>
+      <c r="B1145" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="inlineStr">
+        <is>
+          <t>PITCARD</t>
+        </is>
+      </c>
+      <c r="B1146" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="inlineStr">
+        <is>
+          <t>PIXBB</t>
+        </is>
+      </c>
+      <c r="B1147" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>RAPPI</t>
+        </is>
+      </c>
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="inlineStr">
+        <is>
+          <t>RAPPI FARMACIA</t>
+        </is>
+      </c>
+      <c r="B1149" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr">
+        <is>
+          <t>REDEMED</t>
+        </is>
+      </c>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="inlineStr">
+        <is>
+          <t>REDETREL</t>
+        </is>
+      </c>
+      <c r="B1151" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="inlineStr">
+        <is>
+          <t>SESIMAX</t>
+        </is>
+      </c>
+      <c r="B1152" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="inlineStr">
+        <is>
+          <t>SICREDI</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="inlineStr">
+        <is>
+          <t>SINDPLUS</t>
+        </is>
+      </c>
+      <c r="B1154" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="inlineStr">
+        <is>
+          <t>SOLUCARD</t>
+        </is>
+      </c>
+      <c r="B1155" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="inlineStr">
+        <is>
+          <t>SOMA CONTA DIGITAL</t>
+        </is>
+      </c>
+      <c r="B1156" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="inlineStr">
+        <is>
+          <t>SOROCRED</t>
+        </is>
+      </c>
+      <c r="B1157" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="inlineStr">
+        <is>
+          <t>SYSPROCARD</t>
+        </is>
+      </c>
+      <c r="B1158" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="inlineStr">
+        <is>
+          <t>TEGYNBTEN</t>
+        </is>
+      </c>
+      <c r="B1159" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B1160" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B1161" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="inlineStr">
+        <is>
+          <t>TESTE32</t>
+        </is>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="inlineStr">
+        <is>
+          <t>TODOCARTOES</t>
+        </is>
+      </c>
+      <c r="B1163" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="inlineStr">
+        <is>
+          <t>TRIPAG</t>
+        </is>
+      </c>
+      <c r="B1164" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="inlineStr">
+        <is>
+          <t>UBEREATS</t>
+        </is>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="inlineStr">
+        <is>
+          <t>USACARD</t>
+        </is>
+      </c>
+      <c r="B1166" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="inlineStr">
+        <is>
+          <t>VALECON</t>
+        </is>
+      </c>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="inlineStr">
+        <is>
+          <t>VALEMAIS</t>
+        </is>
+      </c>
+      <c r="B1168" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="inlineStr">
+        <is>
+          <t>VERO</t>
+        </is>
+      </c>
+      <c r="B1169" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="inlineStr">
+        <is>
+          <t>WEBCARD</t>
+        </is>
+      </c>
+      <c r="B1170" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/operadoras_historico.xlsx
+++ b/operadoras_historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1170"/>
+  <dimension ref="A1:B1255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14473,6 +14473,1026 @@
         </is>
       </c>
     </row>
+    <row r="1171">
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>008CARDS</t>
+        </is>
+      </c>
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t>AMEX</t>
+        </is>
+      </c>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="inlineStr">
+        <is>
+          <t>BANESCARD</t>
+        </is>
+      </c>
+      <c r="B1173" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="inlineStr">
+        <is>
+          <t>BANPARA</t>
+        </is>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="inlineStr">
+        <is>
+          <t>BANRICARD</t>
+        </is>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="inlineStr">
+        <is>
+          <t>BENVISAVALE</t>
+        </is>
+      </c>
+      <c r="B1176" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="inlineStr">
+        <is>
+          <t>BIGCARD</t>
+        </is>
+      </c>
+      <c r="B1177" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="inlineStr">
+        <is>
+          <t>BMGCARD</t>
+        </is>
+      </c>
+      <c r="B1178" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+      <c r="B1179" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="inlineStr">
+        <is>
+          <t>BOLETOBB</t>
+        </is>
+      </c>
+      <c r="B1180" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="inlineStr">
+        <is>
+          <t>BRASILCARD</t>
+        </is>
+      </c>
+      <c r="B1181" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="inlineStr">
+        <is>
+          <t>BRASILCARDNET</t>
+        </is>
+      </c>
+      <c r="B1182" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="inlineStr">
+        <is>
+          <t>BRASILCONVENIOS</t>
+        </is>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="inlineStr">
+        <is>
+          <t>CABAL</t>
+        </is>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="inlineStr">
+        <is>
+          <t>CABOSESOLDADOS</t>
+        </is>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="inlineStr">
+        <is>
+          <t>CALCARD</t>
+        </is>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="inlineStr">
+        <is>
+          <t>CARTAOPREDATADO</t>
+        </is>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="inlineStr">
+        <is>
+          <t>CETELEM</t>
+        </is>
+      </c>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="inlineStr">
+        <is>
+          <t>CONVENIOSCARD</t>
+        </is>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="inlineStr">
+        <is>
+          <t>CREDNOSSO</t>
+        </is>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t>CREDSYSTEM</t>
+        </is>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>CREDZ</t>
+        </is>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="inlineStr">
+        <is>
+          <t>CROSCARD</t>
+        </is>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>CSF</t>
+        </is>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>DESCONHECIDO</t>
+        </is>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>DIGIMODAS</t>
+        </is>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="inlineStr">
+        <is>
+          <t>ECXCARD</t>
+        </is>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="inlineStr">
+        <is>
+          <t>ELAVON</t>
+        </is>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="inlineStr">
+        <is>
+          <t>ER CARD</t>
+        </is>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="inlineStr">
+        <is>
+          <t>FANCARD</t>
+        </is>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="inlineStr">
+        <is>
+          <t>FORTBRASIL</t>
+        </is>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="inlineStr">
+        <is>
+          <t>GLOBAL PAYMENTS</t>
+        </is>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="inlineStr">
+        <is>
+          <t>GREENCARD</t>
+        </is>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="inlineStr">
+        <is>
+          <t>HAGANA</t>
+        </is>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="inlineStr">
+        <is>
+          <t>HELLOTICKET</t>
+        </is>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="inlineStr">
+        <is>
+          <t>INOVEPAY</t>
+        </is>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="inlineStr">
+        <is>
+          <t>KOIN</t>
+        </is>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="inlineStr">
+        <is>
+          <t>LAGOACRED</t>
+        </is>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="inlineStr">
+        <is>
+          <t>LOSANGO</t>
+        </is>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="inlineStr">
+        <is>
+          <t>MAISFACIL</t>
+        </is>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="inlineStr">
+        <is>
+          <t>MAXI CARTÃO</t>
+        </is>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="inlineStr">
+        <is>
+          <t>NEUSFESTECARD</t>
+        </is>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="inlineStr">
+        <is>
+          <t>NUTRICASH</t>
+        </is>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="inlineStr">
+        <is>
+          <t>ONECARD</t>
+        </is>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="inlineStr">
+        <is>
+          <t>OPERADORA TESTE CODIGO</t>
+        </is>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="inlineStr">
+        <is>
+          <t>PAGOLIVRE</t>
+        </is>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="inlineStr">
+        <is>
+          <t>PAGSIMPLES</t>
+        </is>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="inlineStr">
+        <is>
+          <t>PAGUELOGO</t>
+        </is>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="inlineStr">
+        <is>
+          <t>PEDEPRONTO</t>
+        </is>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="inlineStr">
+        <is>
+          <t>PERSONALCARD</t>
+        </is>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="inlineStr">
+        <is>
+          <t>PITCARD</t>
+        </is>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="inlineStr">
+        <is>
+          <t>PIXBB</t>
+        </is>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="inlineStr">
+        <is>
+          <t>PLANVALE</t>
+        </is>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="inlineStr">
+        <is>
+          <t>RAPPI</t>
+        </is>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="inlineStr">
+        <is>
+          <t>RAPPI FARMACIA</t>
+        </is>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="inlineStr">
+        <is>
+          <t>REDEMED</t>
+        </is>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="inlineStr">
+        <is>
+          <t>REDETENDENCIA</t>
+        </is>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="inlineStr">
+        <is>
+          <t>REDETREL</t>
+        </is>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="inlineStr">
+        <is>
+          <t>SANTANDER</t>
+        </is>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="inlineStr">
+        <is>
+          <t>SERTAOCARD</t>
+        </is>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="inlineStr">
+        <is>
+          <t>SESIMAX</t>
+        </is>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="inlineStr">
+        <is>
+          <t>SHELLBOX</t>
+        </is>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="inlineStr">
+        <is>
+          <t>SICREDI</t>
+        </is>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="inlineStr">
+        <is>
+          <t>SINDPLUS</t>
+        </is>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="inlineStr">
+        <is>
+          <t>SOMA CONTA DIGITAL</t>
+        </is>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="inlineStr">
+        <is>
+          <t>SOROCRED</t>
+        </is>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="inlineStr">
+        <is>
+          <t>SYSPROCARD</t>
+        </is>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="inlineStr">
+        <is>
+          <t>TEGYNBTEN</t>
+        </is>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="inlineStr">
+        <is>
+          <t>TESTE32</t>
+        </is>
+      </c>
+      <c r="B1242" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="inlineStr">
+        <is>
+          <t>TODOCARTOES</t>
+        </is>
+      </c>
+      <c r="B1243" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="inlineStr">
+        <is>
+          <t>TRIOCARD</t>
+        </is>
+      </c>
+      <c r="B1244" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="inlineStr">
+        <is>
+          <t>TRIPAG</t>
+        </is>
+      </c>
+      <c r="B1245" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="inlineStr">
+        <is>
+          <t>UBEREATS</t>
+        </is>
+      </c>
+      <c r="B1246" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="inlineStr">
+        <is>
+          <t>USACARD</t>
+        </is>
+      </c>
+      <c r="B1247" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="inlineStr">
+        <is>
+          <t>VALECARD</t>
+        </is>
+      </c>
+      <c r="B1248" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="inlineStr">
+        <is>
+          <t>VALECON</t>
+        </is>
+      </c>
+      <c r="B1249" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="inlineStr">
+        <is>
+          <t>VALEMAIS</t>
+        </is>
+      </c>
+      <c r="B1250" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="inlineStr">
+        <is>
+          <t>VALESHOP</t>
+        </is>
+      </c>
+      <c r="B1251" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="inlineStr">
+        <is>
+          <t>VEGASCARD</t>
+        </is>
+      </c>
+      <c r="B1252" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="inlineStr">
+        <is>
+          <t>VERO</t>
+        </is>
+      </c>
+      <c r="B1253" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="inlineStr">
+        <is>
+          <t>WEBCARD</t>
+        </is>
+      </c>
+      <c r="B1254" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="inlineStr">
+        <is>
+          <t>WIZEO</t>
+        </is>
+      </c>
+      <c r="B1255" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/operadoras_historico.xlsx
+++ b/operadoras_historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1255"/>
+  <dimension ref="A1:B1348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15493,6 +15493,1122 @@
         </is>
       </c>
     </row>
+    <row r="1256">
+      <c r="A1256" t="inlineStr">
+        <is>
+          <t>008CARDS</t>
+        </is>
+      </c>
+      <c r="B1256" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="inlineStr">
+        <is>
+          <t>ACCREDITO</t>
+        </is>
+      </c>
+      <c r="B1257" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="inlineStr">
+        <is>
+          <t>AMEX</t>
+        </is>
+      </c>
+      <c r="B1258" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="inlineStr">
+        <is>
+          <t>BANESCARD</t>
+        </is>
+      </c>
+      <c r="B1259" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="inlineStr">
+        <is>
+          <t>BANPARA</t>
+        </is>
+      </c>
+      <c r="B1260" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="inlineStr">
+        <is>
+          <t>BANRICARD</t>
+        </is>
+      </c>
+      <c r="B1261" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="inlineStr">
+        <is>
+          <t>BENVISAVALE</t>
+        </is>
+      </c>
+      <c r="B1262" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="inlineStr">
+        <is>
+          <t>BIGCARD</t>
+        </is>
+      </c>
+      <c r="B1263" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="inlineStr">
+        <is>
+          <t>BIQ BENEFICIOS</t>
+        </is>
+      </c>
+      <c r="B1264" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="inlineStr">
+        <is>
+          <t>BMGCARD</t>
+        </is>
+      </c>
+      <c r="B1265" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+      <c r="B1266" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="inlineStr">
+        <is>
+          <t>BOLETOBB</t>
+        </is>
+      </c>
+      <c r="B1267" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="inlineStr">
+        <is>
+          <t>BRASILCARD</t>
+        </is>
+      </c>
+      <c r="B1268" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="inlineStr">
+        <is>
+          <t>BRASILCARDNET</t>
+        </is>
+      </c>
+      <c r="B1269" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="inlineStr">
+        <is>
+          <t>BRASILCONVENIO</t>
+        </is>
+      </c>
+      <c r="B1270" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="inlineStr">
+        <is>
+          <t>BRASILCONVENIOS</t>
+        </is>
+      </c>
+      <c r="B1271" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="inlineStr">
+        <is>
+          <t>CABAL</t>
+        </is>
+      </c>
+      <c r="B1272" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="inlineStr">
+        <is>
+          <t>CABOSESOLDADOS</t>
+        </is>
+      </c>
+      <c r="B1273" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="inlineStr">
+        <is>
+          <t>CALCARD</t>
+        </is>
+      </c>
+      <c r="B1274" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="inlineStr">
+        <is>
+          <t>CARTAOPREDATADO</t>
+        </is>
+      </c>
+      <c r="B1275" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="inlineStr">
+        <is>
+          <t>CDCCARD</t>
+        </is>
+      </c>
+      <c r="B1276" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="inlineStr">
+        <is>
+          <t>CETELEM</t>
+        </is>
+      </c>
+      <c r="B1277" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="inlineStr">
+        <is>
+          <t>COMPROCARD</t>
+        </is>
+      </c>
+      <c r="B1278" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="inlineStr">
+        <is>
+          <t>CONVENIOSCARD</t>
+        </is>
+      </c>
+      <c r="B1279" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="inlineStr">
+        <is>
+          <t>CREDNOSSO</t>
+        </is>
+      </c>
+      <c r="B1280" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="inlineStr">
+        <is>
+          <t>CREDZ</t>
+        </is>
+      </c>
+      <c r="B1281" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="inlineStr">
+        <is>
+          <t>CROSCARD</t>
+        </is>
+      </c>
+      <c r="B1282" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="inlineStr">
+        <is>
+          <t>CSF</t>
+        </is>
+      </c>
+      <c r="B1283" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="inlineStr">
+        <is>
+          <t>DESCONHECIDO</t>
+        </is>
+      </c>
+      <c r="B1284" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="inlineStr">
+        <is>
+          <t>DIGIMODAS</t>
+        </is>
+      </c>
+      <c r="B1285" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="inlineStr">
+        <is>
+          <t>ECXCARD</t>
+        </is>
+      </c>
+      <c r="B1286" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="inlineStr">
+        <is>
+          <t>ELAVON</t>
+        </is>
+      </c>
+      <c r="B1287" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="inlineStr">
+        <is>
+          <t>ER CARD</t>
+        </is>
+      </c>
+      <c r="B1288" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="inlineStr">
+        <is>
+          <t>FANCARD</t>
+        </is>
+      </c>
+      <c r="B1289" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="inlineStr">
+        <is>
+          <t>FORTBRASIL</t>
+        </is>
+      </c>
+      <c r="B1290" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="inlineStr">
+        <is>
+          <t>GLOBAL PAYMENTS</t>
+        </is>
+      </c>
+      <c r="B1291" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="inlineStr">
+        <is>
+          <t>GOODCARD</t>
+        </is>
+      </c>
+      <c r="B1292" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="inlineStr">
+        <is>
+          <t>GRANDCARD</t>
+        </is>
+      </c>
+      <c r="B1293" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="inlineStr">
+        <is>
+          <t>GREENCARD</t>
+        </is>
+      </c>
+      <c r="B1294" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="inlineStr">
+        <is>
+          <t>HAGANA</t>
+        </is>
+      </c>
+      <c r="B1295" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="inlineStr">
+        <is>
+          <t>HELLOTICKET</t>
+        </is>
+      </c>
+      <c r="B1296" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="inlineStr">
+        <is>
+          <t>HTNCARD</t>
+        </is>
+      </c>
+      <c r="B1297" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="inlineStr">
+        <is>
+          <t>INOVEPAY</t>
+        </is>
+      </c>
+      <c r="B1298" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B1299" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="inlineStr">
+        <is>
+          <t>KOIN</t>
+        </is>
+      </c>
+      <c r="B1300" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="inlineStr">
+        <is>
+          <t>LAGOACRED</t>
+        </is>
+      </c>
+      <c r="B1301" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="inlineStr">
+        <is>
+          <t>LIBERCARD</t>
+        </is>
+      </c>
+      <c r="B1302" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="inlineStr">
+        <is>
+          <t>LOSANGO</t>
+        </is>
+      </c>
+      <c r="B1303" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="inlineStr">
+        <is>
+          <t>MAISFACIL</t>
+        </is>
+      </c>
+      <c r="B1304" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="inlineStr">
+        <is>
+          <t>MAXI CARTÃO</t>
+        </is>
+      </c>
+      <c r="B1305" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="inlineStr">
+        <is>
+          <t>NEUSFESTECARD</t>
+        </is>
+      </c>
+      <c r="B1306" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="inlineStr">
+        <is>
+          <t>NUTRICASH</t>
+        </is>
+      </c>
+      <c r="B1307" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="inlineStr">
+        <is>
+          <t>OPERADORA TESTE CODIGO</t>
+        </is>
+      </c>
+      <c r="B1308" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="inlineStr">
+        <is>
+          <t>PAGOLIVRE</t>
+        </is>
+      </c>
+      <c r="B1309" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="inlineStr">
+        <is>
+          <t>PAGSIMPLES</t>
+        </is>
+      </c>
+      <c r="B1310" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="inlineStr">
+        <is>
+          <t>PAGUELOGO</t>
+        </is>
+      </c>
+      <c r="B1311" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="inlineStr">
+        <is>
+          <t>PEDEPRONTO</t>
+        </is>
+      </c>
+      <c r="B1312" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="inlineStr">
+        <is>
+          <t>PERSONALCARD</t>
+        </is>
+      </c>
+      <c r="B1313" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="inlineStr">
+        <is>
+          <t>PITCARD</t>
+        </is>
+      </c>
+      <c r="B1314" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="inlineStr">
+        <is>
+          <t>PIXBB</t>
+        </is>
+      </c>
+      <c r="B1315" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="inlineStr">
+        <is>
+          <t>PLANVALE</t>
+        </is>
+      </c>
+      <c r="B1316" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="inlineStr">
+        <is>
+          <t>RAPPI</t>
+        </is>
+      </c>
+      <c r="B1317" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="inlineStr">
+        <is>
+          <t>RAPPI FARMACIA</t>
+        </is>
+      </c>
+      <c r="B1318" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" t="inlineStr">
+        <is>
+          <t>REDEMED</t>
+        </is>
+      </c>
+      <c r="B1319" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="inlineStr">
+        <is>
+          <t>REDETENDENCIA</t>
+        </is>
+      </c>
+      <c r="B1320" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="inlineStr">
+        <is>
+          <t>REDETREL</t>
+        </is>
+      </c>
+      <c r="B1321" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="inlineStr">
+        <is>
+          <t>SANTANDER</t>
+        </is>
+      </c>
+      <c r="B1322" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="inlineStr">
+        <is>
+          <t>SERTAOCARD</t>
+        </is>
+      </c>
+      <c r="B1323" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="inlineStr">
+        <is>
+          <t>SESIMAX</t>
+        </is>
+      </c>
+      <c r="B1324" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" t="inlineStr">
+        <is>
+          <t>SHELLBOX</t>
+        </is>
+      </c>
+      <c r="B1325" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="inlineStr">
+        <is>
+          <t>SICREDI</t>
+        </is>
+      </c>
+      <c r="B1326" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="inlineStr">
+        <is>
+          <t>SINDPLUS</t>
+        </is>
+      </c>
+      <c r="B1327" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="inlineStr">
+        <is>
+          <t>SODEXO</t>
+        </is>
+      </c>
+      <c r="B1328" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="inlineStr">
+        <is>
+          <t>SOLUCARD</t>
+        </is>
+      </c>
+      <c r="B1329" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="inlineStr">
+        <is>
+          <t>SOMA CONTA DIGITAL</t>
+        </is>
+      </c>
+      <c r="B1330" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="inlineStr">
+        <is>
+          <t>SOROCRED</t>
+        </is>
+      </c>
+      <c r="B1331" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="inlineStr">
+        <is>
+          <t>SYSPROCARD</t>
+        </is>
+      </c>
+      <c r="B1332" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="inlineStr">
+        <is>
+          <t>TEGYNBTEN</t>
+        </is>
+      </c>
+      <c r="B1333" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B1334" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B1335" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="inlineStr">
+        <is>
+          <t>TESTE32</t>
+        </is>
+      </c>
+      <c r="B1336" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="inlineStr">
+        <is>
+          <t>TODOCARTOES</t>
+        </is>
+      </c>
+      <c r="B1337" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="inlineStr">
+        <is>
+          <t>TRIOCARD</t>
+        </is>
+      </c>
+      <c r="B1338" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="inlineStr">
+        <is>
+          <t>TRIPAG</t>
+        </is>
+      </c>
+      <c r="B1339" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="inlineStr">
+        <is>
+          <t>UBEREATS</t>
+        </is>
+      </c>
+      <c r="B1340" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="inlineStr">
+        <is>
+          <t>USACARD</t>
+        </is>
+      </c>
+      <c r="B1341" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="inlineStr">
+        <is>
+          <t>VALECARD</t>
+        </is>
+      </c>
+      <c r="B1342" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="inlineStr">
+        <is>
+          <t>VALECON</t>
+        </is>
+      </c>
+      <c r="B1343" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="inlineStr">
+        <is>
+          <t>VALEMAIS</t>
+        </is>
+      </c>
+      <c r="B1344" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="inlineStr">
+        <is>
+          <t>VALESHOP</t>
+        </is>
+      </c>
+      <c r="B1345" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="inlineStr">
+        <is>
+          <t>VEGASCARD</t>
+        </is>
+      </c>
+      <c r="B1346" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="inlineStr">
+        <is>
+          <t>WEBCARD</t>
+        </is>
+      </c>
+      <c r="B1347" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="inlineStr">
+        <is>
+          <t>WIZEO</t>
+        </is>
+      </c>
+      <c r="B1348" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/operadoras_historico.xlsx
+++ b/operadoras_historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1348"/>
+  <dimension ref="A1:B1437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16609,6 +16609,1074 @@
         </is>
       </c>
     </row>
+    <row r="1349">
+      <c r="A1349" t="inlineStr">
+        <is>
+          <t>008CARDS</t>
+        </is>
+      </c>
+      <c r="B1349" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="inlineStr">
+        <is>
+          <t>AMEX</t>
+        </is>
+      </c>
+      <c r="B1350" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="inlineStr">
+        <is>
+          <t>AVANCARD</t>
+        </is>
+      </c>
+      <c r="B1351" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="inlineStr">
+        <is>
+          <t>BANESCARD</t>
+        </is>
+      </c>
+      <c r="B1352" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="inlineStr">
+        <is>
+          <t>BANPARA</t>
+        </is>
+      </c>
+      <c r="B1353" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="inlineStr">
+        <is>
+          <t>BANRICARD</t>
+        </is>
+      </c>
+      <c r="B1354" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="inlineStr">
+        <is>
+          <t>BENVISAVALE</t>
+        </is>
+      </c>
+      <c r="B1355" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="inlineStr">
+        <is>
+          <t>BIGCARD</t>
+        </is>
+      </c>
+      <c r="B1356" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="inlineStr">
+        <is>
+          <t>BMGCARD</t>
+        </is>
+      </c>
+      <c r="B1357" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+      <c r="B1358" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="inlineStr">
+        <is>
+          <t>BOLETOBB</t>
+        </is>
+      </c>
+      <c r="B1359" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="inlineStr">
+        <is>
+          <t>BRASILCARD</t>
+        </is>
+      </c>
+      <c r="B1360" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="inlineStr">
+        <is>
+          <t>BRASILCARDNET</t>
+        </is>
+      </c>
+      <c r="B1361" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="inlineStr">
+        <is>
+          <t>BRASILCONVENIOS</t>
+        </is>
+      </c>
+      <c r="B1362" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="inlineStr">
+        <is>
+          <t>CABAL</t>
+        </is>
+      </c>
+      <c r="B1363" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="inlineStr">
+        <is>
+          <t>CABOSESOLDADOS</t>
+        </is>
+      </c>
+      <c r="B1364" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="inlineStr">
+        <is>
+          <t>CALCARD</t>
+        </is>
+      </c>
+      <c r="B1365" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="inlineStr">
+        <is>
+          <t>CARTAOPREDATADO</t>
+        </is>
+      </c>
+      <c r="B1366" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="inlineStr">
+        <is>
+          <t>CETELEM</t>
+        </is>
+      </c>
+      <c r="B1367" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="inlineStr">
+        <is>
+          <t>CONVENIOSCARD</t>
+        </is>
+      </c>
+      <c r="B1368" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="inlineStr">
+        <is>
+          <t>CREDNOSSO</t>
+        </is>
+      </c>
+      <c r="B1369" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="inlineStr">
+        <is>
+          <t>CREDSYSTEM</t>
+        </is>
+      </c>
+      <c r="B1370" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="inlineStr">
+        <is>
+          <t>CREDZ</t>
+        </is>
+      </c>
+      <c r="B1371" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="inlineStr">
+        <is>
+          <t>CROSCARD</t>
+        </is>
+      </c>
+      <c r="B1372" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="inlineStr">
+        <is>
+          <t>CSF</t>
+        </is>
+      </c>
+      <c r="B1373" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="inlineStr">
+        <is>
+          <t>DESCONHECIDO</t>
+        </is>
+      </c>
+      <c r="B1374" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="inlineStr">
+        <is>
+          <t>DIGIMODAS</t>
+        </is>
+      </c>
+      <c r="B1375" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="inlineStr">
+        <is>
+          <t>ECXCARD</t>
+        </is>
+      </c>
+      <c r="B1376" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="inlineStr">
+        <is>
+          <t>ELAVON</t>
+        </is>
+      </c>
+      <c r="B1377" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="inlineStr">
+        <is>
+          <t>ER CARD</t>
+        </is>
+      </c>
+      <c r="B1378" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="inlineStr">
+        <is>
+          <t>FANCARD</t>
+        </is>
+      </c>
+      <c r="B1379" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="inlineStr">
+        <is>
+          <t>FITCARD</t>
+        </is>
+      </c>
+      <c r="B1380" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="inlineStr">
+        <is>
+          <t>FORTBRASIL</t>
+        </is>
+      </c>
+      <c r="B1381" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="inlineStr">
+        <is>
+          <t>GLOBAL PAYMENTS</t>
+        </is>
+      </c>
+      <c r="B1382" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="inlineStr">
+        <is>
+          <t>GOODCARD</t>
+        </is>
+      </c>
+      <c r="B1383" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="inlineStr">
+        <is>
+          <t>HAGANA</t>
+        </is>
+      </c>
+      <c r="B1384" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="inlineStr">
+        <is>
+          <t>HELLOTICKET</t>
+        </is>
+      </c>
+      <c r="B1385" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="inlineStr">
+        <is>
+          <t>HTNCARD</t>
+        </is>
+      </c>
+      <c r="B1386" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="inlineStr">
+        <is>
+          <t>INOVEPAY</t>
+        </is>
+      </c>
+      <c r="B1387" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B1388" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="inlineStr">
+        <is>
+          <t>KOIN</t>
+        </is>
+      </c>
+      <c r="B1389" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="inlineStr">
+        <is>
+          <t>LAGOACRED</t>
+        </is>
+      </c>
+      <c r="B1390" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="inlineStr">
+        <is>
+          <t>LOSANGO</t>
+        </is>
+      </c>
+      <c r="B1391" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="inlineStr">
+        <is>
+          <t>MAISFACIL</t>
+        </is>
+      </c>
+      <c r="B1392" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="inlineStr">
+        <is>
+          <t>MAXI CARTÃO</t>
+        </is>
+      </c>
+      <c r="B1393" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="inlineStr">
+        <is>
+          <t>NEUSFESTECARD</t>
+        </is>
+      </c>
+      <c r="B1394" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="inlineStr">
+        <is>
+          <t>NUTRICASH</t>
+        </is>
+      </c>
+      <c r="B1395" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="inlineStr">
+        <is>
+          <t>OPERADORA TESTE CODIGO</t>
+        </is>
+      </c>
+      <c r="B1396" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="inlineStr">
+        <is>
+          <t>PAGOLIVRE</t>
+        </is>
+      </c>
+      <c r="B1397" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="inlineStr">
+        <is>
+          <t>PAGSIMPLES</t>
+        </is>
+      </c>
+      <c r="B1398" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="inlineStr">
+        <is>
+          <t>PAGUELOGO</t>
+        </is>
+      </c>
+      <c r="B1399" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="inlineStr">
+        <is>
+          <t>PEDEPRONTO</t>
+        </is>
+      </c>
+      <c r="B1400" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="inlineStr">
+        <is>
+          <t>PERSONALCARD</t>
+        </is>
+      </c>
+      <c r="B1401" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="inlineStr">
+        <is>
+          <t>PITCARD</t>
+        </is>
+      </c>
+      <c r="B1402" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="inlineStr">
+        <is>
+          <t>PIXBB</t>
+        </is>
+      </c>
+      <c r="B1403" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="inlineStr">
+        <is>
+          <t>PLANVALE</t>
+        </is>
+      </c>
+      <c r="B1404" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="inlineStr">
+        <is>
+          <t>RAPPI</t>
+        </is>
+      </c>
+      <c r="B1405" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="inlineStr">
+        <is>
+          <t>RAPPI FARMACIA</t>
+        </is>
+      </c>
+      <c r="B1406" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="inlineStr">
+        <is>
+          <t>REDEMED</t>
+        </is>
+      </c>
+      <c r="B1407" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="inlineStr">
+        <is>
+          <t>REDETENDENCIA</t>
+        </is>
+      </c>
+      <c r="B1408" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="inlineStr">
+        <is>
+          <t>REDETREL</t>
+        </is>
+      </c>
+      <c r="B1409" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="inlineStr">
+        <is>
+          <t>SANTANDER</t>
+        </is>
+      </c>
+      <c r="B1410" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="inlineStr">
+        <is>
+          <t>SENFF</t>
+        </is>
+      </c>
+      <c r="B1411" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="inlineStr">
+        <is>
+          <t>SERTAOCARD</t>
+        </is>
+      </c>
+      <c r="B1412" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="inlineStr">
+        <is>
+          <t>SESIMAX</t>
+        </is>
+      </c>
+      <c r="B1413" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="inlineStr">
+        <is>
+          <t>SHELLBOX</t>
+        </is>
+      </c>
+      <c r="B1414" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="inlineStr">
+        <is>
+          <t>SICREDI</t>
+        </is>
+      </c>
+      <c r="B1415" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="inlineStr">
+        <is>
+          <t>SINDPLUS</t>
+        </is>
+      </c>
+      <c r="B1416" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="inlineStr">
+        <is>
+          <t>SODEXO</t>
+        </is>
+      </c>
+      <c r="B1417" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="inlineStr">
+        <is>
+          <t>SOLUCARD</t>
+        </is>
+      </c>
+      <c r="B1418" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="inlineStr">
+        <is>
+          <t>SOMA CONTA DIGITAL</t>
+        </is>
+      </c>
+      <c r="B1419" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="inlineStr">
+        <is>
+          <t>SOROCRED</t>
+        </is>
+      </c>
+      <c r="B1420" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="inlineStr">
+        <is>
+          <t>SYSPROCARD</t>
+        </is>
+      </c>
+      <c r="B1421" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" t="inlineStr">
+        <is>
+          <t>TEGYNBTEN</t>
+        </is>
+      </c>
+      <c r="B1422" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B1423" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B1424" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" t="inlineStr">
+        <is>
+          <t>TESTE32</t>
+        </is>
+      </c>
+      <c r="B1425" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" t="inlineStr">
+        <is>
+          <t>TODOCARTOES</t>
+        </is>
+      </c>
+      <c r="B1426" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" t="inlineStr">
+        <is>
+          <t>TRIOCARD</t>
+        </is>
+      </c>
+      <c r="B1427" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" t="inlineStr">
+        <is>
+          <t>TRIPAG</t>
+        </is>
+      </c>
+      <c r="B1428" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="inlineStr">
+        <is>
+          <t>UBEREATS</t>
+        </is>
+      </c>
+      <c r="B1429" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" t="inlineStr">
+        <is>
+          <t>USACARD</t>
+        </is>
+      </c>
+      <c r="B1430" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" t="inlineStr">
+        <is>
+          <t>VALECARD</t>
+        </is>
+      </c>
+      <c r="B1431" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" t="inlineStr">
+        <is>
+          <t>VALECON</t>
+        </is>
+      </c>
+      <c r="B1432" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" t="inlineStr">
+        <is>
+          <t>VALEMAIS</t>
+        </is>
+      </c>
+      <c r="B1433" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434" t="inlineStr">
+        <is>
+          <t>VALESHOP</t>
+        </is>
+      </c>
+      <c r="B1434" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" t="inlineStr">
+        <is>
+          <t>VEGASCARD</t>
+        </is>
+      </c>
+      <c r="B1435" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" t="inlineStr">
+        <is>
+          <t>WEBCARD</t>
+        </is>
+      </c>
+      <c r="B1436" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" t="inlineStr">
+        <is>
+          <t>WIZEO</t>
+        </is>
+      </c>
+      <c r="B1437" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/operadoras_historico.xlsx
+++ b/operadoras_historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1437"/>
+  <dimension ref="A1:B1520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17677,6 +17677,1002 @@
         </is>
       </c>
     </row>
+    <row r="1438">
+      <c r="A1438" t="inlineStr">
+        <is>
+          <t>008CARDS</t>
+        </is>
+      </c>
+      <c r="B1438" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" t="inlineStr">
+        <is>
+          <t>AMEX</t>
+        </is>
+      </c>
+      <c r="B1439" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" t="inlineStr">
+        <is>
+          <t>BANESCARD</t>
+        </is>
+      </c>
+      <c r="B1440" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" t="inlineStr">
+        <is>
+          <t>BANPARA</t>
+        </is>
+      </c>
+      <c r="B1441" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" t="inlineStr">
+        <is>
+          <t>BANRICARD</t>
+        </is>
+      </c>
+      <c r="B1442" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" t="inlineStr">
+        <is>
+          <t>BENVISAVALE</t>
+        </is>
+      </c>
+      <c r="B1443" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" t="inlineStr">
+        <is>
+          <t>BIGCARD</t>
+        </is>
+      </c>
+      <c r="B1444" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="inlineStr">
+        <is>
+          <t>BMGCARD</t>
+        </is>
+      </c>
+      <c r="B1445" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+      <c r="B1446" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="inlineStr">
+        <is>
+          <t>BOLETOBB</t>
+        </is>
+      </c>
+      <c r="B1447" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="inlineStr">
+        <is>
+          <t>BRASILCARD</t>
+        </is>
+      </c>
+      <c r="B1448" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="inlineStr">
+        <is>
+          <t>BRASILCARDNET</t>
+        </is>
+      </c>
+      <c r="B1449" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" t="inlineStr">
+        <is>
+          <t>BRASILCONVENIOS</t>
+        </is>
+      </c>
+      <c r="B1450" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" t="inlineStr">
+        <is>
+          <t>CABAL</t>
+        </is>
+      </c>
+      <c r="B1451" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" t="inlineStr">
+        <is>
+          <t>CABOSESOLDADOS</t>
+        </is>
+      </c>
+      <c r="B1452" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="inlineStr">
+        <is>
+          <t>CALCARD</t>
+        </is>
+      </c>
+      <c r="B1453" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" t="inlineStr">
+        <is>
+          <t>CARTAOPREDATADO</t>
+        </is>
+      </c>
+      <c r="B1454" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="inlineStr">
+        <is>
+          <t>CETELEM</t>
+        </is>
+      </c>
+      <c r="B1455" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" t="inlineStr">
+        <is>
+          <t>CONVENIOSCARD</t>
+        </is>
+      </c>
+      <c r="B1456" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" t="inlineStr">
+        <is>
+          <t>CREDNOSSO</t>
+        </is>
+      </c>
+      <c r="B1457" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="inlineStr">
+        <is>
+          <t>CREDSYSTEM</t>
+        </is>
+      </c>
+      <c r="B1458" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" t="inlineStr">
+        <is>
+          <t>CREDZ</t>
+        </is>
+      </c>
+      <c r="B1459" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" t="inlineStr">
+        <is>
+          <t>CROSCARD</t>
+        </is>
+      </c>
+      <c r="B1460" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" t="inlineStr">
+        <is>
+          <t>CSF</t>
+        </is>
+      </c>
+      <c r="B1461" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" t="inlineStr">
+        <is>
+          <t>DESCONHECIDO</t>
+        </is>
+      </c>
+      <c r="B1462" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" t="inlineStr">
+        <is>
+          <t>DIGIMODAS</t>
+        </is>
+      </c>
+      <c r="B1463" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" t="inlineStr">
+        <is>
+          <t>ECXCARD</t>
+        </is>
+      </c>
+      <c r="B1464" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" t="inlineStr">
+        <is>
+          <t>ELAVON</t>
+        </is>
+      </c>
+      <c r="B1465" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" t="inlineStr">
+        <is>
+          <t>ER CARD</t>
+        </is>
+      </c>
+      <c r="B1466" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" t="inlineStr">
+        <is>
+          <t>FANCARD</t>
+        </is>
+      </c>
+      <c r="B1467" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="inlineStr">
+        <is>
+          <t>FORTBRASIL</t>
+        </is>
+      </c>
+      <c r="B1468" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" t="inlineStr">
+        <is>
+          <t>GLOBAL PAYMENTS</t>
+        </is>
+      </c>
+      <c r="B1469" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="inlineStr">
+        <is>
+          <t>HAGANA</t>
+        </is>
+      </c>
+      <c r="B1470" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="inlineStr">
+        <is>
+          <t>HELLOTICKET</t>
+        </is>
+      </c>
+      <c r="B1471" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="inlineStr">
+        <is>
+          <t>HTNCARD</t>
+        </is>
+      </c>
+      <c r="B1472" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="inlineStr">
+        <is>
+          <t>INOVEPAY</t>
+        </is>
+      </c>
+      <c r="B1473" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B1474" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" t="inlineStr">
+        <is>
+          <t>KOIN</t>
+        </is>
+      </c>
+      <c r="B1475" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" t="inlineStr">
+        <is>
+          <t>LAGOACRED</t>
+        </is>
+      </c>
+      <c r="B1476" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" t="inlineStr">
+        <is>
+          <t>LIBERCARD</t>
+        </is>
+      </c>
+      <c r="B1477" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" t="inlineStr">
+        <is>
+          <t>LOSANGO</t>
+        </is>
+      </c>
+      <c r="B1478" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="inlineStr">
+        <is>
+          <t>MAISFACIL</t>
+        </is>
+      </c>
+      <c r="B1479" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" t="inlineStr">
+        <is>
+          <t>MAXI CARTÃO</t>
+        </is>
+      </c>
+      <c r="B1480" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="inlineStr">
+        <is>
+          <t>NEUSFESTECARD</t>
+        </is>
+      </c>
+      <c r="B1481" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" t="inlineStr">
+        <is>
+          <t>NUTRICASH</t>
+        </is>
+      </c>
+      <c r="B1482" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="inlineStr">
+        <is>
+          <t>OPERADORA TESTE CODIGO</t>
+        </is>
+      </c>
+      <c r="B1483" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="inlineStr">
+        <is>
+          <t>PAGOLIVRE</t>
+        </is>
+      </c>
+      <c r="B1484" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="inlineStr">
+        <is>
+          <t>PAGSIMPLES</t>
+        </is>
+      </c>
+      <c r="B1485" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="inlineStr">
+        <is>
+          <t>PAGUELOGO</t>
+        </is>
+      </c>
+      <c r="B1486" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="inlineStr">
+        <is>
+          <t>PEDEPRONTO</t>
+        </is>
+      </c>
+      <c r="B1487" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="inlineStr">
+        <is>
+          <t>PERSONALCARD</t>
+        </is>
+      </c>
+      <c r="B1488" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="inlineStr">
+        <is>
+          <t>PITCARD</t>
+        </is>
+      </c>
+      <c r="B1489" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="inlineStr">
+        <is>
+          <t>PIXBB</t>
+        </is>
+      </c>
+      <c r="B1490" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="inlineStr">
+        <is>
+          <t>RAPPI</t>
+        </is>
+      </c>
+      <c r="B1491" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="inlineStr">
+        <is>
+          <t>RAPPI FARMACIA</t>
+        </is>
+      </c>
+      <c r="B1492" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" t="inlineStr">
+        <is>
+          <t>REDEMED</t>
+        </is>
+      </c>
+      <c r="B1493" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="inlineStr">
+        <is>
+          <t>REDETENDENCIA</t>
+        </is>
+      </c>
+      <c r="B1494" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="inlineStr">
+        <is>
+          <t>REDETREL</t>
+        </is>
+      </c>
+      <c r="B1495" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="inlineStr">
+        <is>
+          <t>SERTAOCARD</t>
+        </is>
+      </c>
+      <c r="B1496" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="inlineStr">
+        <is>
+          <t>SESIMAX</t>
+        </is>
+      </c>
+      <c r="B1497" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="inlineStr">
+        <is>
+          <t>SHELLBOX</t>
+        </is>
+      </c>
+      <c r="B1498" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="inlineStr">
+        <is>
+          <t>SICREDI</t>
+        </is>
+      </c>
+      <c r="B1499" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" t="inlineStr">
+        <is>
+          <t>SINDPLUS</t>
+        </is>
+      </c>
+      <c r="B1500" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" t="inlineStr">
+        <is>
+          <t>SOLUCARD</t>
+        </is>
+      </c>
+      <c r="B1501" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" t="inlineStr">
+        <is>
+          <t>SOMA CONTA DIGITAL</t>
+        </is>
+      </c>
+      <c r="B1502" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="inlineStr">
+        <is>
+          <t>SOROCRED</t>
+        </is>
+      </c>
+      <c r="B1503" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="inlineStr">
+        <is>
+          <t>SYSPROCARD</t>
+        </is>
+      </c>
+      <c r="B1504" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="inlineStr">
+        <is>
+          <t>TEGYNBTEN</t>
+        </is>
+      </c>
+      <c r="B1505" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B1506" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B1507" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="inlineStr">
+        <is>
+          <t>TESTE32</t>
+        </is>
+      </c>
+      <c r="B1508" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" t="inlineStr">
+        <is>
+          <t>TODOCARTOES</t>
+        </is>
+      </c>
+      <c r="B1509" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" t="inlineStr">
+        <is>
+          <t>TRIOCARD</t>
+        </is>
+      </c>
+      <c r="B1510" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="inlineStr">
+        <is>
+          <t>TRIPAG</t>
+        </is>
+      </c>
+      <c r="B1511" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="inlineStr">
+        <is>
+          <t>UBEREATS</t>
+        </is>
+      </c>
+      <c r="B1512" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="inlineStr">
+        <is>
+          <t>USACARD</t>
+        </is>
+      </c>
+      <c r="B1513" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" t="inlineStr">
+        <is>
+          <t>VALECARD</t>
+        </is>
+      </c>
+      <c r="B1514" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" t="inlineStr">
+        <is>
+          <t>VALECON</t>
+        </is>
+      </c>
+      <c r="B1515" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" t="inlineStr">
+        <is>
+          <t>VALEMAIS</t>
+        </is>
+      </c>
+      <c r="B1516" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" t="inlineStr">
+        <is>
+          <t>VALESHOP</t>
+        </is>
+      </c>
+      <c r="B1517" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" t="inlineStr">
+        <is>
+          <t>VEGASCARD</t>
+        </is>
+      </c>
+      <c r="B1518" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" t="inlineStr">
+        <is>
+          <t>WEBCARD</t>
+        </is>
+      </c>
+      <c r="B1519" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" t="inlineStr">
+        <is>
+          <t>WIZEO</t>
+        </is>
+      </c>
+      <c r="B1520" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/operadoras_historico.xlsx
+++ b/operadoras_historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1520"/>
+  <dimension ref="A1:B1598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18673,6 +18673,942 @@
         </is>
       </c>
     </row>
+    <row r="1521">
+      <c r="A1521" t="inlineStr">
+        <is>
+          <t>008CARDS</t>
+        </is>
+      </c>
+      <c r="B1521" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" t="inlineStr">
+        <is>
+          <t>AMEX</t>
+        </is>
+      </c>
+      <c r="B1522" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" t="inlineStr">
+        <is>
+          <t>BANESCARD</t>
+        </is>
+      </c>
+      <c r="B1523" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="inlineStr">
+        <is>
+          <t>BANPARA</t>
+        </is>
+      </c>
+      <c r="B1524" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" t="inlineStr">
+        <is>
+          <t>BANRICARD</t>
+        </is>
+      </c>
+      <c r="B1525" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" t="inlineStr">
+        <is>
+          <t>BENVISAVALE</t>
+        </is>
+      </c>
+      <c r="B1526" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" t="inlineStr">
+        <is>
+          <t>BIGCARD</t>
+        </is>
+      </c>
+      <c r="B1527" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" t="inlineStr">
+        <is>
+          <t>BMGCARD</t>
+        </is>
+      </c>
+      <c r="B1528" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+      <c r="B1529" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" t="inlineStr">
+        <is>
+          <t>BOLETOBB</t>
+        </is>
+      </c>
+      <c r="B1530" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" t="inlineStr">
+        <is>
+          <t>BRASILCARD</t>
+        </is>
+      </c>
+      <c r="B1531" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" t="inlineStr">
+        <is>
+          <t>BRASILCARDNET</t>
+        </is>
+      </c>
+      <c r="B1532" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" t="inlineStr">
+        <is>
+          <t>BRASILCONVENIOS</t>
+        </is>
+      </c>
+      <c r="B1533" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" t="inlineStr">
+        <is>
+          <t>CABAL</t>
+        </is>
+      </c>
+      <c r="B1534" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" t="inlineStr">
+        <is>
+          <t>CABOSESOLDADOS</t>
+        </is>
+      </c>
+      <c r="B1535" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" t="inlineStr">
+        <is>
+          <t>CALCARD</t>
+        </is>
+      </c>
+      <c r="B1536" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" t="inlineStr">
+        <is>
+          <t>CARTAOPREDATADO</t>
+        </is>
+      </c>
+      <c r="B1537" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" t="inlineStr">
+        <is>
+          <t>CETELEM</t>
+        </is>
+      </c>
+      <c r="B1538" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" t="inlineStr">
+        <is>
+          <t>CONVENIOSCARD</t>
+        </is>
+      </c>
+      <c r="B1539" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" t="inlineStr">
+        <is>
+          <t>CREDNOSSO</t>
+        </is>
+      </c>
+      <c r="B1540" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" t="inlineStr">
+        <is>
+          <t>CREDZ</t>
+        </is>
+      </c>
+      <c r="B1541" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" t="inlineStr">
+        <is>
+          <t>CROSCARD</t>
+        </is>
+      </c>
+      <c r="B1542" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" t="inlineStr">
+        <is>
+          <t>CSF</t>
+        </is>
+      </c>
+      <c r="B1543" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" t="inlineStr">
+        <is>
+          <t>DESCONHECIDO</t>
+        </is>
+      </c>
+      <c r="B1544" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" t="inlineStr">
+        <is>
+          <t>DIGIMODAS</t>
+        </is>
+      </c>
+      <c r="B1545" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" t="inlineStr">
+        <is>
+          <t>ECXCARD</t>
+        </is>
+      </c>
+      <c r="B1546" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" t="inlineStr">
+        <is>
+          <t>ELAVON</t>
+        </is>
+      </c>
+      <c r="B1547" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" t="inlineStr">
+        <is>
+          <t>FANCARD</t>
+        </is>
+      </c>
+      <c r="B1548" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" t="inlineStr">
+        <is>
+          <t>FITCARD</t>
+        </is>
+      </c>
+      <c r="B1549" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" t="inlineStr">
+        <is>
+          <t>GLOBAL PAYMENTS</t>
+        </is>
+      </c>
+      <c r="B1550" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" t="inlineStr">
+        <is>
+          <t>HAGANA</t>
+        </is>
+      </c>
+      <c r="B1551" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" t="inlineStr">
+        <is>
+          <t>HELLOTICKET</t>
+        </is>
+      </c>
+      <c r="B1552" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" t="inlineStr">
+        <is>
+          <t>IBICARTOES</t>
+        </is>
+      </c>
+      <c r="B1553" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="inlineStr">
+        <is>
+          <t>INOVEPAY</t>
+        </is>
+      </c>
+      <c r="B1554" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B1555" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="inlineStr">
+        <is>
+          <t>KOIN</t>
+        </is>
+      </c>
+      <c r="B1556" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="inlineStr">
+        <is>
+          <t>LAGOACRED</t>
+        </is>
+      </c>
+      <c r="B1557" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" t="inlineStr">
+        <is>
+          <t>LOSANGO</t>
+        </is>
+      </c>
+      <c r="B1558" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" t="inlineStr">
+        <is>
+          <t>MAISFACIL</t>
+        </is>
+      </c>
+      <c r="B1559" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" t="inlineStr">
+        <is>
+          <t>MAXI CARTÃO</t>
+        </is>
+      </c>
+      <c r="B1560" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" t="inlineStr">
+        <is>
+          <t>NUTRICASH</t>
+        </is>
+      </c>
+      <c r="B1561" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" t="inlineStr">
+        <is>
+          <t>OPERADORA TESTE CODIGO</t>
+        </is>
+      </c>
+      <c r="B1562" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" t="inlineStr">
+        <is>
+          <t>PAGOLIVRE</t>
+        </is>
+      </c>
+      <c r="B1563" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" t="inlineStr">
+        <is>
+          <t>PAGSIMPLES</t>
+        </is>
+      </c>
+      <c r="B1564" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" t="inlineStr">
+        <is>
+          <t>PAGUELOGO</t>
+        </is>
+      </c>
+      <c r="B1565" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" t="inlineStr">
+        <is>
+          <t>PEDEPRONTO</t>
+        </is>
+      </c>
+      <c r="B1566" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="inlineStr">
+        <is>
+          <t>PERSONALCARD</t>
+        </is>
+      </c>
+      <c r="B1567" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" t="inlineStr">
+        <is>
+          <t>PITCARD</t>
+        </is>
+      </c>
+      <c r="B1568" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" t="inlineStr">
+        <is>
+          <t>PIXBB</t>
+        </is>
+      </c>
+      <c r="B1569" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" t="inlineStr">
+        <is>
+          <t>RAPPI</t>
+        </is>
+      </c>
+      <c r="B1570" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" t="inlineStr">
+        <is>
+          <t>RAPPI FARMACIA</t>
+        </is>
+      </c>
+      <c r="B1571" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" t="inlineStr">
+        <is>
+          <t>REDEMED</t>
+        </is>
+      </c>
+      <c r="B1572" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" t="inlineStr">
+        <is>
+          <t>REDETENDENCIA</t>
+        </is>
+      </c>
+      <c r="B1573" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" t="inlineStr">
+        <is>
+          <t>REDETREL</t>
+        </is>
+      </c>
+      <c r="B1574" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" t="inlineStr">
+        <is>
+          <t>SEICON</t>
+        </is>
+      </c>
+      <c r="B1575" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" t="inlineStr">
+        <is>
+          <t>SESIMAX</t>
+        </is>
+      </c>
+      <c r="B1576" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" t="inlineStr">
+        <is>
+          <t>SHELLBOX</t>
+        </is>
+      </c>
+      <c r="B1577" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" t="inlineStr">
+        <is>
+          <t>SICREDI</t>
+        </is>
+      </c>
+      <c r="B1578" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" t="inlineStr">
+        <is>
+          <t>SINDPLUS</t>
+        </is>
+      </c>
+      <c r="B1579" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" t="inlineStr">
+        <is>
+          <t>SODEXO</t>
+        </is>
+      </c>
+      <c r="B1580" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" t="inlineStr">
+        <is>
+          <t>SOLUCARD</t>
+        </is>
+      </c>
+      <c r="B1581" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" t="inlineStr">
+        <is>
+          <t>SOMA CONTA DIGITAL</t>
+        </is>
+      </c>
+      <c r="B1582" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" t="inlineStr">
+        <is>
+          <t>SOROCRED</t>
+        </is>
+      </c>
+      <c r="B1583" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" t="inlineStr">
+        <is>
+          <t>TEGYNBTEN</t>
+        </is>
+      </c>
+      <c r="B1584" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B1585" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B1586" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" t="inlineStr">
+        <is>
+          <t>TESTE32</t>
+        </is>
+      </c>
+      <c r="B1587" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" t="inlineStr">
+        <is>
+          <t>TODOCARTOES</t>
+        </is>
+      </c>
+      <c r="B1588" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" t="inlineStr">
+        <is>
+          <t>TRIOCARD</t>
+        </is>
+      </c>
+      <c r="B1589" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" t="inlineStr">
+        <is>
+          <t>TRIPAG</t>
+        </is>
+      </c>
+      <c r="B1590" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" t="inlineStr">
+        <is>
+          <t>UBEREATS</t>
+        </is>
+      </c>
+      <c r="B1591" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" t="inlineStr">
+        <is>
+          <t>USACARD</t>
+        </is>
+      </c>
+      <c r="B1592" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" t="inlineStr">
+        <is>
+          <t>VALECARD</t>
+        </is>
+      </c>
+      <c r="B1593" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" t="inlineStr">
+        <is>
+          <t>VALECON</t>
+        </is>
+      </c>
+      <c r="B1594" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" t="inlineStr">
+        <is>
+          <t>VALEMAIS</t>
+        </is>
+      </c>
+      <c r="B1595" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" t="inlineStr">
+        <is>
+          <t>VEGASCARD</t>
+        </is>
+      </c>
+      <c r="B1596" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" t="inlineStr">
+        <is>
+          <t>WEBCARD</t>
+        </is>
+      </c>
+      <c r="B1597" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" t="inlineStr">
+        <is>
+          <t>WIZEO</t>
+        </is>
+      </c>
+      <c r="B1598" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/operadoras_historico.xlsx
+++ b/operadoras_historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1598"/>
+  <dimension ref="A1:B1599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19609,6 +19609,18 @@
         </is>
       </c>
     </row>
+    <row r="1599">
+      <c r="A1599" t="inlineStr">
+        <is>
+          <t>BLACKHAWK</t>
+        </is>
+      </c>
+      <c r="B1599" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/operadoras_historico.xlsx
+++ b/operadoras_historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1599"/>
+  <dimension ref="A1:B1600"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19621,6 +19621,18 @@
         </is>
       </c>
     </row>
+    <row r="1600">
+      <c r="A1600" t="inlineStr">
+        <is>
+          <t>GETNET</t>
+        </is>
+      </c>
+      <c r="B1600" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
